--- a/Задания.xlsx
+++ b/Задания.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>Блок</t>
   </si>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -739,7 +739,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -840,7 +840,9 @@
       <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -855,7 +857,9 @@
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -870,7 +874,9 @@
       <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
@@ -900,7 +906,9 @@
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>

--- a/Задания.xlsx
+++ b/Задания.xlsx
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -840,8 +840,8 @@
       <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>21</v>
+      <c r="E21" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -857,8 +857,8 @@
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>21</v>
+      <c r="E22" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">

--- a/Задания.xlsx
+++ b/Задания.xlsx
@@ -475,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -789,8 +789,8 @@
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>36</v>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -840,8 +840,8 @@
       <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>36</v>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -857,8 +857,8 @@
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>36</v>
+      <c r="E22" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">

--- a/Задания.xlsx
+++ b/Задания.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>Блок</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>На проверку</t>
+  </si>
+  <si>
+    <t>Проверено (машины в 4м блоке)</t>
+  </si>
+  <si>
+    <t>JAVA I/O</t>
+  </si>
+  <si>
+    <t>ГСМ:система комманд, хранение стоимости и расхода топлива в файле, инфо в разрезе дня (см подробнее в файле)</t>
   </si>
 </sst>
 </file>
@@ -473,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,8 +698,8 @@
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>36</v>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -891,7 +900,9 @@
       <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
@@ -907,6 +918,23 @@
         <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Задания.xlsx
+++ b/Задания.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>Блок</t>
   </si>
@@ -136,13 +136,19 @@
     <t>На проверку</t>
   </si>
   <si>
-    <t>Проверено (машины в 4м блоке)</t>
-  </si>
-  <si>
     <t>JAVA I/O</t>
   </si>
   <si>
     <t>ГСМ:система комманд, хранение стоимости и расхода топлива в файле, инфо в разрезе дня (см подробнее в файле)</t>
+  </si>
+  <si>
+    <t>Логирование</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>машины в 4м блоке</t>
   </si>
 </sst>
 </file>
@@ -482,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,10 +501,11 @@
     <col min="3" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="93.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="36.81640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +521,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -532,7 +542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -549,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -566,7 +576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -583,7 +593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -600,7 +610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -617,7 +627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -634,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -651,7 +661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -668,7 +678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -685,7 +695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -699,10 +709,13 @@
         <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -719,7 +732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -732,9 +745,11 @@
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -751,7 +766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -917,8 +932,8 @@
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>21</v>
+      <c r="E25" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -926,15 +941,32 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Задания.xlsx
+++ b/Задания.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="6370"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -762,8 +762,8 @@
       <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>36</v>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -898,8 +898,8 @@
       <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>21</v>
+      <c r="E23" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -966,8 +966,8 @@
       <c r="D27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>21</v>
+      <c r="E27" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
